--- a/data/trans_orig/P33b_R4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35B730A-9B1C-4265-9857-BF025BC53385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02041CE5-774B-479D-8D0A-BDFF53DEBF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3EEF45A4-952A-4AB1-BC9F-789718744912}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8B765C0-5236-473C-BD2B-D3E907BB0001}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>25,04%</t>
   </si>
   <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
   </si>
   <si>
     <t>36,08%</t>
   </si>
   <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>31,72%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>74,96%</t>
   </si>
   <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
   </si>
   <si>
     <t>63,92%</t>
   </si>
   <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>12,11%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
   </si>
   <si>
     <t>87,89%</t>
   </si>
   <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
   </si>
   <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,70 +194,76 @@
     <t>11,47%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>12,52%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>82,73%</t>
   </si>
   <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>87,48%</t>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
   </si>
   <si>
     <t>19,26%</t>
@@ -266,25 +272,25 @@
     <t>85,94%</t>
   </si>
   <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>83,02%</t>
+    <t>82,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47BA920D-C039-45F2-9278-F2C688B6F3A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C16C5E6-B77C-45C1-A24F-FFB26A168B5E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1041,7 +1047,7 @@
         <v>2340</v>
       </c>
       <c r="I8" s="7">
-        <v>1839075</v>
+        <v>1839076</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1092,7 +1098,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1169,7 +1175,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,13 +1190,13 @@
         <v>594997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>839</v>
@@ -1199,13 +1205,13 @@
         <v>590627</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1448</v>
@@ -1214,13 +1220,13 @@
         <v>1185624</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1288,13 +1294,13 @@
         <v>474199</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1245</v>
@@ -1303,13 +1309,13 @@
         <v>833868</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1763</v>
@@ -1321,10 +1327,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,13 +1345,13 @@
         <v>2899409</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>4104</v>
@@ -1354,13 +1360,13 @@
         <v>2961580</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>6947</v>
@@ -1372,10 +1378,10 @@
         <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1431,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02041CE5-774B-479D-8D0A-BDFF53DEBF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1D29D5-0ABC-4A52-BD42-87CC0BC861AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8B765C0-5236-473C-BD2B-D3E907BB0001}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6517A71D-BC10-4F77-8040-7A3E12F13054}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C16C5E6-B77C-45C1-A24F-FFB26A168B5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2E73A5-DA78-41E7-ADBE-7308A91959C0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F1D29D5-0ABC-4A52-BD42-87CC0BC861AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D70DFB-D273-4441-A6C7-57DAF1D47669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6517A71D-BC10-4F77-8040-7A3E12F13054}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D4A5831C-464A-40D9-B3A0-8A11713E14F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>25,04%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
   </si>
   <si>
     <t>36,08%</t>
   </si>
   <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
   </si>
   <si>
     <t>31,72%</t>
   </si>
   <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>74,96%</t>
   </si>
   <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
   </si>
   <si>
     <t>63,92%</t>
   </si>
   <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>68,28%</t>
   </si>
   <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>12,11%</t>
   </si>
   <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
   </si>
   <si>
     <t>87,89%</t>
   </si>
   <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>84,76%</t>
   </si>
   <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,76 +194,70 @@
     <t>11,47%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>12,52%</t>
   </si>
   <si>
     <t>88,53%</t>
   </si>
   <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>82,73%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>87,48%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>19,26%</t>
@@ -272,25 +266,25 @@
     <t>85,94%</t>
   </si>
   <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>82,92%</t>
+    <t>83,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2E73A5-DA78-41E7-ADBE-7308A91959C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A78A607-D6A0-4350-BB8B-4CAEB5F4658D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1047,7 +1041,7 @@
         <v>2340</v>
       </c>
       <c r="I8" s="7">
-        <v>1839076</v>
+        <v>1839075</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1098,7 +1092,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1175,7 +1169,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,13 +1184,13 @@
         <v>594997</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>839</v>
@@ -1205,13 +1199,13 @@
         <v>590627</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1448</v>
@@ -1220,13 +1214,13 @@
         <v>1185624</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1288,13 @@
         <v>474199</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1245</v>
@@ -1309,13 +1303,13 @@
         <v>833868</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1763</v>
@@ -1327,10 +1321,10 @@
         <v>35</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,13 +1339,13 @@
         <v>2899409</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>4104</v>
@@ -1360,13 +1354,13 @@
         <v>2961580</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>6947</v>
@@ -1378,10 +1372,10 @@
         <v>44</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,7 +1431,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R4-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D70DFB-D273-4441-A6C7-57DAF1D47669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35DA93A6-501C-453C-80DA-2BC5B8A51424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D4A5831C-464A-40D9-B3A0-8A11713E14F8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A21F64A2-0E1C-48DA-9055-C1E8E553F741}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,157 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -699,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A78A607-D6A0-4350-BB8B-4CAEB5F4658D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A22EE8-305E-4A67-9F65-6F766DB19572}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -820,7 +832,7 @@
         <v>172</v>
       </c>
       <c r="D4" s="7">
-        <v>135632</v>
+        <v>124023</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -835,7 +847,7 @@
         <v>499</v>
       </c>
       <c r="I4" s="7">
-        <v>300163</v>
+        <v>264050</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -850,7 +862,7 @@
         <v>671</v>
       </c>
       <c r="N4" s="7">
-        <v>435796</v>
+        <v>388072</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -871,7 +883,7 @@
         <v>519</v>
       </c>
       <c r="D5" s="7">
-        <v>406002</v>
+        <v>390915</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -886,7 +898,7 @@
         <v>925</v>
       </c>
       <c r="I5" s="7">
-        <v>531877</v>
+        <v>488065</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -901,7 +913,7 @@
         <v>1444</v>
       </c>
       <c r="N5" s="7">
-        <v>937878</v>
+        <v>878981</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -922,7 +934,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -937,7 +949,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>832040</v>
+        <v>752115</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -952,7 +964,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="7">
-        <v>1373674</v>
+        <v>1267053</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -975,7 +987,7 @@
         <v>275</v>
       </c>
       <c r="D7" s="7">
-        <v>261497</v>
+        <v>245540</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -990,7 +1002,7 @@
         <v>581</v>
       </c>
       <c r="I7" s="7">
-        <v>410445</v>
+        <v>373935</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1005,7 +1017,7 @@
         <v>856</v>
       </c>
       <c r="N7" s="7">
-        <v>671942</v>
+        <v>619475</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1026,7 +1038,7 @@
         <v>1715</v>
       </c>
       <c r="D8" s="7">
-        <v>1898410</v>
+        <v>2042741</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1041,7 +1053,7 @@
         <v>2340</v>
       </c>
       <c r="I8" s="7">
-        <v>1839075</v>
+        <v>1863888</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1056,7 +1068,7 @@
         <v>4055</v>
       </c>
       <c r="N8" s="7">
-        <v>3737486</v>
+        <v>3906630</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1077,7 +1089,7 @@
         <v>1990</v>
       </c>
       <c r="D9" s="7">
-        <v>2159907</v>
+        <v>2288281</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1092,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1107,7 +1119,7 @@
         <v>4911</v>
       </c>
       <c r="N9" s="7">
-        <v>4409428</v>
+        <v>4526105</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1130,7 +1142,7 @@
         <v>71</v>
       </c>
       <c r="D10" s="7">
-        <v>77070</v>
+        <v>73084</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1145,7 +1157,7 @@
         <v>165</v>
       </c>
       <c r="I10" s="7">
-        <v>123259</v>
+        <v>113194</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1160,7 +1172,7 @@
         <v>236</v>
       </c>
       <c r="N10" s="7">
-        <v>200329</v>
+        <v>186278</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1169,7 +1181,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1181,46 +1193,46 @@
         <v>609</v>
       </c>
       <c r="D11" s="7">
-        <v>594997</v>
+        <v>572570</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>839</v>
       </c>
       <c r="I11" s="7">
-        <v>590627</v>
+        <v>547269</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1448</v>
       </c>
       <c r="N11" s="7">
-        <v>1185624</v>
+        <v>1119839</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1232,7 +1244,7 @@
         <v>680</v>
       </c>
       <c r="D12" s="7">
-        <v>672067</v>
+        <v>645654</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1247,7 +1259,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1262,7 +1274,7 @@
         <v>1684</v>
       </c>
       <c r="N12" s="7">
-        <v>1385953</v>
+        <v>1306117</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1285,46 +1297,46 @@
         <v>518</v>
       </c>
       <c r="D13" s="7">
-        <v>474199</v>
+        <v>442647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>1245</v>
       </c>
       <c r="I13" s="7">
-        <v>833868</v>
+        <v>751179</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1763</v>
       </c>
       <c r="N13" s="7">
-        <v>1308067</v>
+        <v>1193825</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1336,46 +1348,46 @@
         <v>2843</v>
       </c>
       <c r="D14" s="7">
-        <v>2899409</v>
+        <v>3006227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>4104</v>
       </c>
       <c r="I14" s="7">
-        <v>2961580</v>
+        <v>2899222</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6947</v>
       </c>
       <c r="N14" s="7">
-        <v>5860988</v>
+        <v>5905450</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1387,7 +1399,7 @@
         <v>3361</v>
       </c>
       <c r="D15" s="7">
-        <v>3373608</v>
+        <v>3448874</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1402,7 +1414,7 @@
         <v>5349</v>
       </c>
       <c r="I15" s="7">
-        <v>3795448</v>
+        <v>3650401</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1417,7 +1429,7 @@
         <v>8710</v>
       </c>
       <c r="N15" s="7">
-        <v>7169055</v>
+        <v>7099275</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1431,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
